--- a/abnormalDataCache.xlsx
+++ b/abnormalDataCache.xlsx
@@ -7,12 +7,13 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet6" sheetId="9" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="10" r:id="rId1"/>
+    <sheet name="Sheet6" sheetId="9" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -442,4 +443,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/abnormalDataCache.xlsx
+++ b/abnormalDataCache.xlsx
@@ -7,13 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet7" sheetId="10" r:id="rId1"/>
-    <sheet name="Sheet6" sheetId="9" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="8" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="11" r:id="rId1"/>
+    <sheet name="Sheet7" sheetId="10" r:id="rId2"/>
+    <sheet name="Sheet6" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -457,4 +458,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>